--- a/docs/resources/QUBO gates.xlsx
+++ b/docs/resources/QUBO gates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektek\repos\msc-thesis\docs\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5025B3-66EC-47F4-A519-CF252CB6D9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389304E6-9433-4639-8AF2-9D88F45C8D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{9FD17CF5-BB05-4735-9ED8-20BDB4D05CAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{9FD17CF5-BB05-4735-9ED8-20BDB4D05CAA}"/>
   </bookViews>
   <sheets>
     <sheet name="OR" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="XOR" sheetId="5" r:id="rId5"/>
     <sheet name="XOR 2változó" sheetId="7" r:id="rId6"/>
     <sheet name="MOR" sheetId="8" r:id="rId7"/>
+    <sheet name="MOR (2)" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
   <si>
     <t>x</t>
   </si>
@@ -187,16 +188,52 @@
   </si>
   <si>
     <t>X+Y+Z+T+3T+XT+YT+ZT</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>XT</t>
+  </si>
+  <si>
+    <t>YT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,16 +271,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1879,7 +1962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE77EC0-B9B3-400E-9D42-45729B025955}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -2340,4 +2423,1380 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEBB40A-323E-4391-A254-8D5D241FD99F}">
+  <dimension ref="A1:S33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <f>(OR(A2,B2,C2)=(E2=1))</f>
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <f>(AND(OR(A2,B2)=(D2=1),OR(C2,D2)=(E2=1)))</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <f>IF(F2,0,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>SUM(A2:E2)+D2+A2*B2+C2*D2-2*A2*D2-2*B2*D2-2*C2*E2-2*D2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <f>M2*SUM(A2:C2)+N2*(A2*B2+A2*C2+B2*C2)+O2*E2*SUM(A2:C2)+P2*D2+Q2*D2*E2+R2*D2*SUM(A2:C2)+S2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="b">
+        <f>IF(G2,I2=0,I2&gt;0)</f>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <f t="shared" ref="F3:F33" si="0">(OR(A3,B3,C3)=(E3=1))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <f t="shared" ref="G3:G33" si="1">(AND(OR(A3,B3)=(D3=1),OR(C3,D3)=(E3=1)))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f t="shared" ref="H3:H33" si="2">IF(F3,0,"&gt;0")</f>
+        <v>&gt;0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I33" si="3">SUM(A3:E3)+D3+A3*B3+C3*D3-2*A3*D3-2*B3*D3-2*C3*E3-2*D3*E3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J33" si="4">M3*SUM(A3:C3)+N3*(A3*B3+A3*C3+B3*C3)+O3*E3*SUM(A3:C3)+P3*D3+Q3*D3*E3+R3*D3*SUM(A3:C3)+S3*E3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="b">
+        <f t="shared" ref="K3:K33" si="5">IF(G3,I3=0,I3&gt;0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&gt;0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>